--- a/Congreso_2008/Datos_2008.xlsx
+++ b/Congreso_2008/Datos_2008.xlsx
@@ -103,241 +103,241 @@
     <t xml:space="preserve">Ética</t>
   </si>
   <si>
+    <t xml:space="preserve">Antioquia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beatriz Helena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amador L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experiencia estética como experiencia de verdad en Hans George Gadamer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">II Encuentro de Estudios Estéticos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana María</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amaya-Villareal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidad Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hölderlin lector del "Banquete" : eros, unidad y totalidad. Una aproximación moderna a la teoría platónica del amor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filosofía Moderna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodolfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arango</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abuso de la religión en la política  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filosofía Política</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricardo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arcos-Palma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacques Rancière: política, ética y estética.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Víctor Andrés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arévalo C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar y decir: La relevancia filosófica del cine y su relación con la argumentación en filosofía </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filosofía Contemporánea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedro Juan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aristizábal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidad Tecnológica de Pereira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cultura postmoderna y globalización. Indagación sobre el pensamiento postmoderno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orlando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arroyave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Débora Arango: una visión postmoderna del arte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joseph Ratzinger: pasado, presente y futuro de la Iglesia en el mundo contemporáneo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filosofía de la Religión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ignacio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ávila C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfiles y Cosas. A propósito de la experiencia perceptual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fenomenología</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Andrés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbosa C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La religión como necesidad en la filosofía japonesa contemporánea: Nishitani Keiji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomás Andrés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barrero G.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naturalización del significado, intencionalidad y normatividad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lógica y Filosofía de la Ciencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Witton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Becerra M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidad Santo Tomás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ser y estar: aproximaciones al filosofar y ficcionar desde la perspectiva hispanoamericana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claudia Marina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benito M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidad Minuto de Dios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centros y periferias, una mirada a las dinámicas urbanas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marta Cecilia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betancur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidad de Caldas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Una revisión del realismo externo de Searle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wittgenstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan J.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conciencia, Mundo y la segunda persona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anna Maria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brigante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidad Javeriana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La razón inclusiva de Giambattista Vico </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filosofía Moderna Hoy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingrid Sofía</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buitrago M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La vena escéptica de Wittgenstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carolina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cáceres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De la mudez de la palabra a la elocuencia del gesto. Algunas observaciones de Wittgenstein sobre el arte.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lina Marcela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadavid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidad de Antioquia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mística y filosofía en el Tractatus Logico-Philosopicus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oscar David</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caicedo M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidad del Atlántico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individuo vs. Estado: Libertad humana a la luz de la filosofía de Karl Popper</t>
+  </si>
+  <si>
     <t xml:space="preserve">Norte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beatriz Helena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amador L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Experiencia estética como experiencia de verdad en Hans George Gadamer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">II Encuentro de Estudios Estéticos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana María</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amaya-Villareal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universidad Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hölderlin lector del "Banquete" : eros, unidad y totalidad. Una aproximación moderna a la teoría platónica del amor </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filosofía Moderna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rodolfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arango</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abuso de la religión en la política  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filosofía Política</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ricardo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arcos-Palma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacques Rancière: política, ética y estética.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Víctor Andrés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arévalo C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mostrar y decir: La relevancia filosófica del cine y su relación con la argumentación en filosofía </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filosofía Contemporánea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedro Juan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aristizábal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universidad Tecnológica de Pereira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cultura postmoderna y globalización. Indagación sobre el pensamiento postmoderno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orlando</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arroyave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Débora Arango: una visión postmoderna del arte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joseph Ratzinger: pasado, presente y futuro de la Iglesia en el mundo contemporáneo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filosofía de la Religión</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ignacio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ávila C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perfiles y Cosas. A propósito de la experiencia perceptual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fenomenología</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos Andrés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barbosa C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La religión como necesidad en la filosofía japonesa contemporánea: Nishitani Keiji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomás Andrés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barrero G.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naturalización del significado, intencionalidad y normatividad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lógica y Filosofía de la Ciencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Witton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Becerra M.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universidad Santo Tomás</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ser y estar: aproximaciones al filosofar y ficcionar desde la perspectiva hispanoamericana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Claudia Marina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benito M.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universidad Minuto de Dios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centros y periferias, una mirada a las dinámicas urbanas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marta Cecilia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Betancur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universidad de Caldas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Una revisión del realismo externo de Searle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wittgenstein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan J.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conciencia, Mundo y la segunda persona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anna Maria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brigante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universidad Javeriana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La razón inclusiva de Giambattista Vico </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filosofía Moderna Hoy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingrid Sofía</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buitrago M.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La vena escéptica de Wittgenstein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carolina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cáceres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De la mudez de la palabra a la elocuencia del gesto. Algunas observaciones de Wittgenstein sobre el arte.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lina Marcela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadavid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universidad de Antioquia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mística y filosofía en el Tractatus Logico-Philosopicus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antioquia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oscar David</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caicedo M.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universidad del Atlántico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Individuo vs. Estado: Libertad humana a la luz de la filosofía de Karl Popper</t>
   </si>
   <si>
     <t xml:space="preserve">Leonardo</t>
@@ -2020,13 +2020,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G198"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2058,7 +2058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>7</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>14</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>27</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>32</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>37</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>41</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>44</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>48</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>58</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>62</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>65</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>69</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>73</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>77</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>82</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>85</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>90</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>93</v>
       </c>
@@ -2558,36 +2558,36 @@
         <v>81</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="C24" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="D24" s="0" t="s">
         <v>103</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>104</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>40</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>105</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>116</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>120</v>
       </c>
@@ -2673,13 +2673,13 @@
         <v>124</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>116</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>130</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>133</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>136</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>140</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>144</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>147</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>151</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>154</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>157</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>160</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>164</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>169</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>173</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>176</v>
       </c>
@@ -3041,13 +3041,13 @@
         <v>180</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="G44" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>181</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>185</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>189</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>193</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>194</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>195</v>
@@ -3133,13 +3133,13 @@
         <v>196</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>197</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>201</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>201</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>207</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>211</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>215</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>219</v>
       </c>
@@ -3294,13 +3294,13 @@
         <v>11</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="G55" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>222</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>225</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>228</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>228</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>234</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>238</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>93</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>244</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>247</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>251</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>252</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>253</v>
@@ -3524,7 +3524,7 @@
         <v>192</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="G65" s="0" t="s">
         <v>20</v>
@@ -3599,7 +3599,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>259</v>
       </c>
@@ -3639,13 +3639,13 @@
         <v>40</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="G70" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>267</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>270</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>274</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>279</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>281</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>284</v>
       </c>
@@ -3800,13 +3800,13 @@
         <v>278</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="G77" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>291</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>294</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>296</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>300</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>300</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>270</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>306</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>306</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>310</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>313</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>313</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>317</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>321</v>
       </c>
@@ -4122,13 +4122,13 @@
         <v>327</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>328</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>331</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>222</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>335</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>338</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>340</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>343</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>346</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>350</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>47</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="G101" s="0" t="s">
         <v>20</v>
@@ -4375,13 +4375,13 @@
         <v>40</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="G102" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>361</v>
       </c>
@@ -4398,13 +4398,13 @@
         <v>40</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="G103" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>364</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>367</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>370</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
         <v>373</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
         <v>375</v>
       </c>
@@ -4536,13 +4536,13 @@
         <v>115</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="G109" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
         <v>381</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
         <v>384</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
         <v>386</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
         <v>389</v>
       </c>
@@ -4651,13 +4651,13 @@
         <v>36</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="G114" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
         <v>396</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
         <v>400</v>
       </c>
@@ -4697,13 +4697,13 @@
         <v>81</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="G116" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>403</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>406</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
         <v>409</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>412</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
         <v>416</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
         <v>419</v>
       </c>
@@ -4858,13 +4858,13 @@
         <v>68</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="G123" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
         <v>426</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
         <v>430</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
         <v>433</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
         <v>436</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
         <v>439</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
         <v>443</v>
       </c>
@@ -4996,13 +4996,13 @@
         <v>180</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="G129" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
         <v>447</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
         <v>450</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
         <v>453</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
         <v>244</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
         <v>458</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
         <v>461</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
         <v>464</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
         <v>467</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
         <v>471</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
         <v>474</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
         <v>62</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
         <v>482</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
         <v>485</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
         <v>485</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
         <v>489</v>
       </c>
@@ -5387,13 +5387,13 @@
         <v>18</v>
       </c>
       <c r="F146" s="0" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="G146" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
         <v>493</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
         <v>496</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
         <v>499</v>
       </c>
@@ -5456,13 +5456,13 @@
         <v>61</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="G149" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
         <v>502</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
         <v>505</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
         <v>197</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
         <v>509</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
         <v>512</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
         <v>515</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
         <v>518</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
         <v>521</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
         <v>409</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
         <v>526</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
         <v>340</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
         <v>532</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
         <v>535</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
         <v>538</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
         <v>542</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
         <v>545</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
         <v>284</v>
       </c>
@@ -5847,13 +5847,13 @@
         <v>40</v>
       </c>
       <c r="F166" s="0" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="G166" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
         <v>551</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
         <v>551</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
         <v>555</v>
       </c>
@@ -5916,13 +5916,13 @@
         <v>40</v>
       </c>
       <c r="F169" s="0" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="G169" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
         <v>559</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
         <v>564</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
         <v>569</v>
       </c>
@@ -6031,13 +6031,13 @@
         <v>31</v>
       </c>
       <c r="F174" s="0" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="G174" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
         <v>575</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
         <v>105</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
         <v>580</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
         <v>583</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
         <v>586</v>
       </c>
@@ -6146,13 +6146,13 @@
         <v>250</v>
       </c>
       <c r="F179" s="0" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="G179" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
         <v>589</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
         <v>589</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
         <v>593</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
         <v>496</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
         <v>598</v>
       </c>
@@ -6284,13 +6284,13 @@
         <v>115</v>
       </c>
       <c r="F185" s="0" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="G185" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
         <v>306</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
         <v>37</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>606</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D187" s="0" t="s">
         <v>607</v>
@@ -6330,13 +6330,13 @@
         <v>81</v>
       </c>
       <c r="F187" s="0" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="G187" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
         <v>608</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
         <v>608</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
         <v>613</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
         <v>617</v>
       </c>
@@ -6428,7 +6428,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
         <v>620</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
         <v>623</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
         <v>623</v>
       </c>
@@ -6675,7 +6675,13 @@
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:G194"/>
+  <autoFilter ref="A1:G194">
+    <filterColumn colId="5">
+      <customFilters and="true">
+        <customFilter operator="equal" val="Antioquia"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
